--- a/results/probabilitySNPoverlap.xlsx
+++ b/results/probabilitySNPoverlap.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
